--- a/Documentation/RiskAssessmentQAProject2.xlsx
+++ b/Documentation/RiskAssessmentQAProject2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\hsjhita\QAProject2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harpr\Desktop\QA\Projects\QAProject2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C924E89-404A-4872-A68F-A6C0DBE1BCA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374F9C93-588B-4AA2-9F89-C961AAFE8E6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="15634" xr2:uid="{D70316BA-2B41-4A2E-9786-400113271AB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{D70316BA-2B41-4A2E-9786-400113271AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>RISK</t>
   </si>
@@ -55,6 +55,72 @@
   </si>
   <si>
     <t>REVISIT</t>
+  </si>
+  <si>
+    <t>GCP server shuts down. As GCP is currently being used on a free trial/credit, the server will only run while the account is credited. Should the account run out of credit, the service will no longer work</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Harpreet Jhita</t>
+  </si>
+  <si>
+    <t>The virtual machine and SQL instance are both being shut down while not in use to reduce costs. Also, to limit the usage of the virutal machine, the application is being developed outside it so the machine can be turned off until the application needs to be tested. Finally, as the application is a basic application, it does not need huge amounts of processing power or a high storage capacity so the choices for both storage size and performance of the virtual machine have both been taken into consideration and have suitable hardware for its requirements</t>
+  </si>
+  <si>
+    <t>One solution that is not in place is to credit the account so that on the off chance that the account was to lose all its credit, the service could still run. While this is a viable option, given the amount of credit that is available, it seems highly unlikely that it would run out. Another solution is to create a new Google account. If the application is constantly being saved and uploaded to a version control system, the project can be cloned to this new account and can resume its operations.</t>
+  </si>
+  <si>
+    <t>Testing could reveal faults in the program. Testing is a very important part in developing the application and running tests late in the development could raise issues and bugs which has previously not been seen.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>While testing is being conducted alongside the development, the current testing is just smoke testing which check the basic functionality of the application. While certain methods implemented in the code contain some sort of validation by making sure the correct data is inserted, this needs to be tested at a lower level</t>
+  </si>
+  <si>
+    <t>Thourough tests to be conducted and in doing these tests, any flaws in the application which can lead to a potential bug or provide a way for unauthorised users can be found while testing and couldn be fixed before launching the application</t>
+  </si>
+  <si>
+    <t>Constant check to ensure code is at best practice and typos or mistakes are taken out asap. There is also the usage of sensible variable name so that variables are not confused with other items or variables. If there were coding errors which had leds to bugs and could not be sorted out, a VCS has been implemented and rolling back to a previous version is a viable option</t>
+  </si>
+  <si>
+    <t>Opening unnessecary ports can lead to people accessing the web server and could risk the server to being hacked into.</t>
+  </si>
+  <si>
+    <t>Currently, all ports have been disabled apart from the ones needed for the application. This has been done by assigning tags to a firewall rule and assigning that rule to the machine. This means that only ports assigned in that rule will be accessible.</t>
+  </si>
+  <si>
+    <t>Upload of any keys or certain passwords required to access upload to a VCS. Uploading these keys will allow anyone with access to the repository to view these keys and allow them to gain unauthorised access</t>
+  </si>
+  <si>
+    <t>Any keys have been exported as an environment variable meaning that they have to be imported each time a new bash shell is opened. This means that anyone who tries to launch the application without the keys will fail. Having this means that only people with access to these keys will be able to launch the application.</t>
+  </si>
+  <si>
+    <t>The measures in place should already be enough to prevent this risk from occuring. One measure that could be implemented is to prevent excessive sharing of the keys and keep it between a select few and potentially change the password or data for the key on a regular basis such that if a key was uploaded, an updated key would render it obsolete.</t>
+  </si>
+  <si>
+    <t>There isn't much else that I can do to prevent this risk from happening. All that I can do is make sure that only the ports required are opened. These include port 80 and 8000.</t>
+  </si>
+  <si>
+    <t>Trello is being used to track progress for the project. This is helpful as it tells me what tasks I need to do and which tasks are left. Upon looking at this, I can priortise which tasks are important and need doing and which ones are not important to the final application.</t>
+  </si>
+  <si>
+    <t>Project is not completed in the time frame. If the project were not to a MVP standard at the end of the timeframe, the project can be deemed as a fail and as the only member, I would be at full blame</t>
+  </si>
+  <si>
+    <t>Coding errors or bugs leading to service errors. These errors could lead to code not working as intended</t>
+  </si>
+  <si>
+    <t>Version control through multiple systems. As I would be using Docker, I can also utilise Dockers version of a VCS. I can upload different versions of my docker images which would relate to progress and functionality of the project. Also, following best practice can help in debugging and development as the code becomes a standard in which if I did need help or had to explain the code, it does not seem irregular</t>
+  </si>
+  <si>
+    <t>Dedicating extra time to work on the project can help to ensure that I meet the deadline. Using the Trello board, I can add addiotional tasks which I had previously not have thought of or under tasks, create checklists to make sure each task is completed to its fullest extent</t>
   </si>
 </sst>
 </file>
@@ -102,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -141,56 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -271,103 +287,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,300 +668,374 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9B7BBA-5194-4C0E-A45C-48B8E683C59F}">
   <dimension ref="B1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="107" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="8.3046875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.15234375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.765625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="11.15234375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.77734375" style="4" customWidth="1"/>
+    <col min="11" max="13" width="14.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="2:19" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:19" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="2:19" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
+    <row r="4" spans="2:19" ht="178.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+    <row r="5" spans="2:19" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+    <row r="6" spans="2:19" s="2" customFormat="1" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="2:19" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+    <row r="8" spans="2:19" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+    <row r="9" spans="2:19" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G11" s="10"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G12" s="10"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="6"/>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="G12" s="8"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G13" s="10"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="M13" s="6"/>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="G13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G14" s="10"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G15" s="10"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G16" s="10"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G17" s="10"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G18" s="10"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G19" s="10"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G20" s="10"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G21" s="10"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="G14" s="8"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="G15" s="8"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="G16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G20" s="8"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N2:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:M6"/>
@@ -992,15 +1049,13 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N2:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/RiskAssessmentQAProject2.xlsx
+++ b/Documentation/RiskAssessmentQAProject2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harpr\Desktop\QA\Projects\QAProject2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374F9C93-588B-4AA2-9F89-C961AAFE8E6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE31D69B-62F2-44BF-BCC8-77127B77AF43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{D70316BA-2B41-4A2E-9786-400113271AB7}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="15634" xr2:uid="{D70316BA-2B41-4A2E-9786-400113271AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>RISK</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Dedicating extra time to work on the project can help to ensure that I meet the deadline. Using the Trello board, I can add addiotional tasks which I had previously not have thought of or under tasks, create checklists to make sure each task is completed to its fullest extent</t>
+  </si>
+  <si>
+    <t>The risk did not occur as I carefully monitored the usage. As a result of this, I didn’t have to implement any of the proposed meseaures.</t>
+  </si>
+  <si>
+    <t>Again, this risk did not occur and no secret keys were exposed on the VCS or in any code.</t>
+  </si>
+  <si>
+    <t>Only necessry ports were opened. Accessing the web server from different ports gave connection refused errors which was expected. Trying to access different pages also resulted in errors. For example, service 2 used port 8001 and trying to access port 8001 also gives a connection refused error. Other methods used include limiting which IP address can access each machine and the database</t>
   </si>
 </sst>
 </file>
@@ -313,6 +322,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,24 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,58 +678,59 @@
   <dimension ref="B1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="107" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:M9"/>
+      <selection activeCell="K6" sqref="K6:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.77734375" style="4" customWidth="1"/>
-    <col min="11" max="13" width="14.44140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.3046875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.07421875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.765625" style="4" customWidth="1"/>
+    <col min="11" max="13" width="14.4609375" style="4" customWidth="1"/>
+    <col min="14" max="16" width="14.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="2:19" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:19" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+    <row r="3" spans="2:19" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -730,25 +740,25 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="2:19" ht="178.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:19" ht="178.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
@@ -758,29 +768,31 @@
       <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="2:19" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:19" ht="112.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
@@ -790,29 +802,29 @@
       <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="2:19" s="2" customFormat="1" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:19" s="2" customFormat="1" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
@@ -822,29 +834,29 @@
       <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="2:19" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:19" ht="121.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
@@ -854,29 +866,31 @@
       <c r="G7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="2:19" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:19" ht="117.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
@@ -886,29 +900,31 @@
       <c r="G8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:19" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:19" ht="112.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
@@ -918,29 +934,29 @@
       <c r="G9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="G11" s="8"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -951,7 +967,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="G12" s="8"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -960,7 +976,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="G13" s="8"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -969,56 +985,56 @@
       <c r="M13" s="5"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="G14" s="8"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="G15" s="8"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="G16" s="8"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G17" s="8"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G18" s="8"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G19" s="8"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G20" s="8"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G21" s="8"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1027,15 +1043,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N2:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:M6"/>
@@ -1049,13 +1063,15 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N2:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
